--- a/Running projects/BAF Head Office/Running Bill No 3 (Rec now only retention rem of 8 lac plus).xlsx
+++ b/Running projects/BAF Head Office/Running Bill No 3 (Rec now only retention rem of 8 lac plus).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\BAF Head Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E4943A-4B5F-40EA-ADED-D208C941C870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88E7AD1-B5C9-4958-B628-818A4603A2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -810,7 +810,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -842,7 +842,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -878,7 +878,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -906,10 +906,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -918,7 +918,7 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,7 +935,7 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -950,26 +950,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -987,11 +987,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1013,8 +1013,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,6 +1023,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1044,21 +1059,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,6 +1095,15 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1114,15 +1123,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,6 +1144,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>353333</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>67108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29FF85B-695B-DB84-20F0-6D159639030C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="6048375"/>
+          <a:ext cx="6506483" cy="3105583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10456</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>181371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2525C2EB-B6C0-70C1-287E-A7E34344FFDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9477375" y="9391650"/>
+          <a:ext cx="6668431" cy="2838846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1455,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D57402-0FA0-4D20-97E8-578049FFF70A}">
-  <dimension ref="A6:J50"/>
+  <dimension ref="A6:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,8 +1882,8 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:5" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="52" t="s">
         <v>83</v>
       </c>
@@ -1799,8 +1892,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="52" t="s">
         <v>88</v>
       </c>
@@ -1838,53 +1931,53 @@
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:5" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:5" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
     </row>
     <row r="15" spans="1:5" s="29" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:5" s="29" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1970,11 +2063,12 @@
         <f>Summary!E34</f>
         <v>4273243.7300000004</v>
       </c>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="59"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1985,10 +2079,10 @@
     </row>
     <row r="29" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="86"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="38">
         <f>D26</f>
         <v>4273243.7300000004</v>
@@ -1997,8 +2091,8 @@
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="38"/>
       <c r="G30" s="41"/>
     </row>
@@ -2050,24 +2144,26 @@
     </row>
     <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
       <c r="D34" s="38"/>
       <c r="F34" s="41"/>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="86"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="38">
         <f>D33+D32+D31</f>
         <v>4273244.0199999996</v>
       </c>
       <c r="G35" s="60"/>
       <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="60">
+        <v>4273244.0199999996</v>
+      </c>
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2075,15 +2171,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" s="39"/>
+      <c r="H37" s="41">
+        <f>D33+D32+D31</f>
+        <v>4273244.0199999996</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="40"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+    <row r="39" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="80"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="57"/>
       <c r="G39" s="56"/>
     </row>
@@ -2158,21 +2258,22 @@
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="55"/>
+      <c r="D49" s="55">
+        <v>3144567</v>
+      </c>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E50" s="14"/>
     </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="55">
+        <f>D47-D49</f>
+        <v>720467.12722999929</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A39:B39"/>
@@ -2188,10 +2289,18 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2199,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,13 +2687,13 @@
       <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" s="29" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
@@ -2947,11 +3056,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
       <c r="G36" s="41">
         <f>E32+E33+Invocice!D29</f>
         <v>13557223.4</v>
@@ -6563,10 +6672,10 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="105"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="10"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -6839,10 +6948,10 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="105"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="10"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -6928,10 +7037,10 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="107"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="10"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -6954,29 +7063,29 @@
       <c r="B40" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108" t="s">
+      <c r="C40" s="111"/>
+      <c r="D40" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="111">
+      <c r="E40" s="104">
         <v>105000</v>
       </c>
-      <c r="F40" s="111">
+      <c r="F40" s="104">
         <v>25000</v>
       </c>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108">
+      <c r="G40" s="111"/>
+      <c r="H40" s="111">
         <v>2</v>
       </c>
-      <c r="I40" s="108">
+      <c r="I40" s="111">
         <f>H40+G40</f>
         <v>2</v>
       </c>
-      <c r="J40" s="111">
+      <c r="J40" s="104">
         <f>I40*E40</f>
         <v>210000</v>
       </c>
-      <c r="K40" s="111">
+      <c r="K40" s="104">
         <f>I40*F40</f>
         <v>50000</v>
       </c>
@@ -6988,15 +7097,15 @@
       <c r="B41" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
     </row>
     <row r="42" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -7005,15 +7114,15 @@
       <c r="B42" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
     </row>
     <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -7022,15 +7131,15 @@
       <c r="B43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="112"/>
-      <c r="K43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
     </row>
     <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -7039,15 +7148,15 @@
       <c r="B44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="94" t="s">
@@ -7589,13 +7698,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K40:K44"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A2:F2"/>
@@ -7609,6 +7711,13 @@
     <mergeCell ref="H40:H44"/>
     <mergeCell ref="I40:I44"/>
     <mergeCell ref="J40:J44"/>
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
